--- a/notebooks/DOCK8/input/Zhang_2009_DOCK8.xlsx
+++ b/notebooks/DOCK8/input/Zhang_2009_DOCK8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/DOCK8/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11213FCD-8B6E-DB4B-A227-D8CA16C6600D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD97154-A1B5-5D4F-B869-7BC4F9650174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="3960" windowWidth="28040" windowHeight="17440" xr2:uid="{015DCEB2-D6CE-7D44-895B-963D4F361496}"/>
   </bookViews>
@@ -212,12 +212,6 @@
     <t>c.529-18C&gt;G</t>
   </si>
   <si>
-    <t>c.3290delC</t>
-  </si>
-  <si>
-    <t>c.3303_3304insTGGCTGCT</t>
-  </si>
-  <si>
     <t>c.1418A&gt;G</t>
   </si>
   <si>
@@ -372,6 +366,12 @@
   </si>
   <si>
     <t>Streptococcus pneumonia, non-typeable Haemophilus influenzae, RSV pneumonias, otitis media</t>
+  </si>
+  <si>
+    <t>c.3494del</t>
+  </si>
+  <si>
+    <t>c.3504_3505insTGGCTGCT</t>
   </si>
 </sst>
 </file>
@@ -738,9 +738,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1754F473-8A90-474B-A806-43BB73F669FB}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>34</v>
@@ -1005,22 +1005,22 @@
         <v>35</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -1069,34 +1069,34 @@
         <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="J9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="204" x14ac:dyDescent="0.2">
@@ -1104,37 +1104,37 @@
         <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="K10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="221" x14ac:dyDescent="0.2">
@@ -1142,37 +1142,37 @@
         <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="255" x14ac:dyDescent="0.2">
@@ -1180,13 +1180,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>32</v>
@@ -1201,13 +1201,13 @@
         <v>41</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>32</v>
@@ -1221,10 +1221,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>32</v>
@@ -1242,7 +1242,7 @@
         <v>32</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
         <v>32</v>
@@ -1256,10 +1256,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>42</v>
@@ -1271,22 +1271,22 @@
         <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -1356,13 +1356,13 @@
         <v>57</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="L16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="85" x14ac:dyDescent="0.2">
@@ -1394,13 +1394,13 @@
         <v>56</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/DOCK8/input/Zhang_2009_DOCK8.xlsx
+++ b/notebooks/DOCK8/input/Zhang_2009_DOCK8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/DOCK8/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD97154-A1B5-5D4F-B869-7BC4F9650174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A63DA8-577A-B548-AE3F-635641023040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="3960" windowWidth="28040" windowHeight="17440" xr2:uid="{015DCEB2-D6CE-7D44-895B-963D4F361496}"/>
+    <workbookView xWindow="4400" yWindow="2080" windowWidth="28040" windowHeight="17440" xr2:uid="{015DCEB2-D6CE-7D44-895B-963D4F361496}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="118">
   <si>
     <t>Allergies</t>
   </si>
@@ -372,6 +372,24 @@
   </si>
   <si>
     <t>c.3504_3505insTGGCTGCT</t>
+  </si>
+  <si>
+    <t>Recurrent upper respiratory tract infections</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Recurrent lower respiratory tract infections</t>
+  </si>
+  <si>
+    <t>Food allergy</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Drug allergy</t>
   </si>
 </sst>
 </file>
@@ -440,9 +458,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -480,7 +498,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -586,7 +604,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -728,7 +746,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -736,11 +754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1754F473-8A90-474B-A806-43BB73F669FB}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1023,383 +1041,535 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
         <v>2</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J10" t="s">
         <v>2</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K10" t="s">
         <v>2</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="153" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:23" ht="153" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="204" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="12" spans="1:23" ht="204" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="K12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="221" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="13" spans="1:23" ht="221" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="255" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="14" spans="1:23" ht="255" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="187" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="L14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="187" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="204" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="204" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="B15">
+      <c r="B19">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E15">
+      <c r="E19">
         <v>27</v>
       </c>
-      <c r="F15">
+      <c r="F19">
         <v>30</v>
       </c>
-      <c r="G15">
+      <c r="G19">
         <v>33</v>
       </c>
-      <c r="H15">
+      <c r="H19">
         <v>62</v>
       </c>
-      <c r="I15">
+      <c r="I19">
         <v>42</v>
       </c>
-      <c r="J15">
+      <c r="J19">
         <v>61</v>
       </c>
-      <c r="K15">
+      <c r="K19">
         <v>54</v>
       </c>
-      <c r="L15">
+      <c r="L19">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="20" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="21" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>58</v>
       </c>
     </row>
